--- a/outputs-HGR-r202/g__UBA9502.xlsx
+++ b/outputs-HGR-r202/g__UBA9502.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>s__UBA9502 sp900538475</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__UBA9502 sp900538475</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -544,6 +554,11 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>s__UBA9502 sp900540335</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__UBA9502 sp900540335(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__UBA9502.xlsx
+++ b/outputs-HGR-r202/g__UBA9502.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,44 +524,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9612.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1221393154258975</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1335219283002912</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.003794458661895592</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2610037442156314</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.479540553396255</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.931964215945157e-14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.479540553396255</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>s__UBA9502 sp900540335</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>s__UBA9502 sp900540335(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__UBA9502.xlsx
+++ b/outputs-HGR-r202/g__UBA9502.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>s__UBA9502 sp900540335</t>
+          <t>s__UBA9502 sp900540335(reject)</t>
         </is>
       </c>
     </row>
